--- a/export_personas.xlsx
+++ b/export_personas.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -117,6 +117,30 @@
   </si>
   <si>
     <t>Vendedor</t>
+  </si>
+  <si>
+    <t>asdasd qweewqwe</t>
+  </si>
+  <si>
+    <t>qwwqeqweqwe</t>
+  </si>
+  <si>
+    <t>asdasdasdasasd</t>
+  </si>
+  <si>
+    <t>John Eduardo</t>
+  </si>
+  <si>
+    <t>Supervisor</t>
+  </si>
+  <si>
+    <t>Charles Bukowski</t>
+  </si>
+  <si>
+    <t>prueba crear cliente cotizacion</t>
+  </si>
+  <si>
+    <t>aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaTroll</t>
   </si>
 </sst>
 </file>
@@ -456,7 +480,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -885,6 +909,176 @@
       <c r="H17" t="s">
         <v>33</v>
       </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
